--- a/IPL/Kolkata Knight Riders/Varun Chakravarthy.xlsx
+++ b/IPL/Kolkata Knight Riders/Varun Chakravarthy.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,135 +445,36 @@
         <v>Varun Chakravarthy</v>
       </c>
       <c r="C2" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>62.50</v>
+        <v>16.66</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Delhi</v>
       </c>
       <c r="J2" t="str">
-        <v>March 30 2022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Varun Chakravarthy</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <v>0</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>-</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="I3" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J3" t="str">
-        <v>May 09 2022</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Varun Chakravarthy</v>
-      </c>
-      <c r="C4" t="str">
-        <v>10</v>
-      </c>
-      <c r="D4" t="str">
-        <v>16</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2</v>
-      </c>
-      <c r="F4" t="str">
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
-        <v>62.50</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="I4" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J4" t="str">
-        <v>March 30 2022</v>
-      </c>
-      <c r="K4" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Varun Chakravarthy</v>
-      </c>
-      <c r="C5" t="str">
-        <v>0</v>
-      </c>
-      <c r="D5" t="str">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <v>-</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="I5" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J5" t="str">
-        <v>May 09 2022</v>
-      </c>
-      <c r="K5" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>April 20 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>